--- a/DuLieuThucHanh2_N01.xlsx
+++ b/DuLieuThucHanh2_N01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/datnguyen/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84944\PycharmProjects\N1_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783EF3CE-FB30-B64E-9BC8-A104194A4BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EF9006-0EC9-44CE-B35B-AFC4B8ADCEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="3" xr2:uid="{F458A799-C09C-4EC7-9AD7-CC3D648776AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F458A799-C09C-4EC7-9AD7-CC3D648776AF}"/>
   </bookViews>
   <sheets>
     <sheet name="San Pham" sheetId="1" r:id="rId1"/>
@@ -376,7 +376,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -690,19 +690,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405FE032-1726-403A-8B86-23EEC9FE5DD0}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1138</v>
       </c>
@@ -724,13 +724,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="D2" s="2">
         <v>25000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+20</f>
         <v>1158</v>
@@ -740,14 +740,14 @@
       </c>
       <c r="C3" s="1">
         <f>C2+3</f>
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2">
         <f>D2+500</f>
         <v>25500</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A50" si="0">A3+20</f>
         <v>1178</v>
@@ -757,14 +757,14 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:C50" si="1">C3+3</f>
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D50" si="2">D3+500</f>
+        <f t="shared" ref="D4:D49" si="2">D3+500</f>
         <v>26000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>1198</v>
@@ -774,14 +774,14 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="2"/>
         <v>26500</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>1218</v>
@@ -791,14 +791,14 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="2"/>
         <v>27000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>1238</v>
@@ -808,14 +808,14 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="2"/>
         <v>27500</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>1258</v>
@@ -825,14 +825,14 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="2"/>
         <v>28000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>1278</v>
@@ -842,14 +842,14 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="2"/>
         <v>28500</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>1298</v>
@@ -859,11 +859,11 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>1318</v>
@@ -873,14 +873,14 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="D11" s="2">
         <f>D9+1000</f>
         <v>29500</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>1338</v>
@@ -890,14 +890,14 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>1358</v>
@@ -907,14 +907,14 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="2"/>
         <v>30500</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>1378</v>
@@ -924,14 +924,14 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="2"/>
         <v>31000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>1398</v>
@@ -939,12 +939,15 @@
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C15" s="1">
+        <v>400</v>
+      </c>
       <c r="D15" s="2">
         <f t="shared" si="2"/>
         <v>31500</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>1418</v>
@@ -953,15 +956,15 @@
         <v>20</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>C15-150+13</f>
+        <v>263</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="2"/>
         <v>32000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>1438</v>
@@ -971,14 +974,14 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>266</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="2"/>
         <v>32500</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>1458</v>
@@ -988,14 +991,14 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="2"/>
         <v>33000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>1478</v>
@@ -1005,14 +1008,14 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="2"/>
         <v>33500</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>1498</v>
@@ -1022,13 +1025,13 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>275</v>
       </c>
       <c r="D20" s="2">
         <v>33000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>1518</v>
@@ -1038,13 +1041,13 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="D21" s="2">
         <v>33000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>1538</v>
@@ -1054,13 +1057,13 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>281</v>
       </c>
       <c r="D22" s="2">
         <v>33000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>1558</v>
@@ -1070,13 +1073,13 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>284</v>
       </c>
       <c r="D23" s="2">
         <v>33000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>1578</v>
@@ -1086,13 +1089,13 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>287</v>
       </c>
       <c r="D24" s="2">
         <v>33000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>1598</v>
@@ -1102,13 +1105,13 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="D25" s="2">
         <v>33000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>1618</v>
@@ -1118,13 +1121,13 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>293</v>
       </c>
       <c r="D26" s="2">
         <v>33000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>1638</v>
@@ -1134,14 +1137,14 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>296</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="2"/>
         <v>33500</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>1658</v>
@@ -1151,14 +1154,14 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>299</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="2"/>
         <v>34000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>1678</v>
@@ -1171,7 +1174,7 @@
         <v>34500</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>1698</v>
@@ -1180,12 +1183,12 @@
         <v>34</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>C29+13</f>
+        <v>13</v>
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>1718</v>
@@ -1195,14 +1198,14 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D31" s="2">
         <f>D29+500</f>
         <v>35000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>1738</v>
@@ -1212,14 +1215,14 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="2"/>
         <v>35500</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>1758</v>
@@ -1229,14 +1232,14 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="2"/>
         <v>36000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>1778</v>
@@ -1246,14 +1249,14 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="2"/>
         <v>36500</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>1798</v>
@@ -1263,14 +1266,14 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="2"/>
         <v>37000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>1818</v>
@@ -1280,14 +1283,14 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="2"/>
         <v>37500</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>1838</v>
@@ -1297,14 +1300,14 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="2"/>
         <v>38000</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>1858</v>
@@ -1314,14 +1317,14 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="2"/>
         <v>38500</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>1878</v>
@@ -1331,14 +1334,14 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" si="2"/>
         <v>39000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>1898</v>
@@ -1348,13 +1351,13 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D40" s="2">
         <v>33000</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>1918</v>
@@ -1364,14 +1367,14 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" si="2"/>
         <v>33500</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>1938</v>
@@ -1381,14 +1384,14 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" si="2"/>
         <v>34000</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>1958</v>
@@ -1398,14 +1401,14 @@
       </c>
       <c r="C43" s="1">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" si="2"/>
         <v>34500</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>1978</v>
@@ -1418,7 +1421,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>1998</v>
@@ -1427,15 +1430,15 @@
         <v>49</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>C44+31</f>
+        <v>31</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" si="2"/>
         <v>35500</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -1445,14 +1448,14 @@
       </c>
       <c r="C46" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" si="2"/>
         <v>36000</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>2038</v>
@@ -1462,14 +1465,14 @@
       </c>
       <c r="C47" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" si="2"/>
         <v>36500</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>2058</v>
@@ -1479,14 +1482,14 @@
       </c>
       <c r="C48" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" si="2"/>
         <v>37000</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>2078</v>
@@ -1496,14 +1499,14 @@
       </c>
       <c r="C49" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" si="2"/>
         <v>37500</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>2098</v>
@@ -1513,7 +1516,7 @@
       </c>
       <c r="C50" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D50" s="2"/>
     </row>
@@ -1526,18 +1529,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0D1414-1F59-4A01-8193-5F54171AFB74}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1545,7 +1548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3183</v>
       </c>
@@ -1553,7 +1556,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+2</f>
         <v>3185</v>
@@ -1562,7 +1565,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A50" si="0">A3+2</f>
         <v>3187</v>
@@ -1571,7 +1574,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>3189</v>
@@ -1580,7 +1583,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>3191</v>
@@ -1589,7 +1592,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>3193</v>
@@ -1598,7 +1601,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>3195</v>
@@ -1607,7 +1610,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>3197</v>
@@ -1616,7 +1619,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>3199</v>
@@ -1625,7 +1628,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>3201</v>
@@ -1634,7 +1637,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>3203</v>
@@ -1643,7 +1646,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>3205</v>
@@ -1652,7 +1655,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>3207</v>
@@ -1661,13 +1664,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>3209</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>3211</v>
@@ -1676,7 +1679,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>3213</v>
@@ -1685,7 +1688,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>3215</v>
@@ -1694,7 +1697,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>3217</v>
@@ -1703,7 +1706,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>3219</v>
@@ -1712,7 +1715,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>3221</v>
@@ -1721,13 +1724,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>3223</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>3225</v>
@@ -1736,7 +1739,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>3227</v>
@@ -1745,7 +1748,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>3229</v>
@@ -1754,7 +1757,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>3231</v>
@@ -1763,7 +1766,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>3233</v>
@@ -1772,7 +1775,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>3235</v>
@@ -1781,13 +1784,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>3237</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>3239</v>
@@ -1796,7 +1799,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>3241</v>
@@ -1805,7 +1808,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>3243</v>
@@ -1814,7 +1817,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>3245</v>
@@ -1823,7 +1826,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>3247</v>
@@ -1832,7 +1835,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>3249</v>
@@ -1841,7 +1844,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>3251</v>
@@ -1850,7 +1853,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>3253</v>
@@ -1859,7 +1862,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>3255</v>
@@ -1868,7 +1871,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>3257</v>
@@ -1877,7 +1880,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>3259</v>
@@ -1886,7 +1889,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>3261</v>
@@ -1895,13 +1898,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>3263</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>3265</v>
@@ -1910,7 +1913,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>3267</v>
@@ -1919,7 +1922,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>3269</v>
@@ -1928,7 +1931,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>3271</v>
@@ -1937,7 +1940,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>3273</v>
@@ -1946,7 +1949,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>3275</v>
@@ -1955,7 +1958,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>3277</v>
@@ -1964,7 +1967,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>3279</v>
@@ -1986,14 +1989,14 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>5521</v>
       </c>
@@ -2009,7 +2012,7 @@
         <v>3183</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+2</f>
         <v>5523</v>
@@ -2019,7 +2022,7 @@
         <v>3185</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A50" si="0">A3+2</f>
         <v>5525</v>
@@ -2029,7 +2032,7 @@
         <v>3187</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>5527</v>
@@ -2039,7 +2042,7 @@
         <v>3189</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5529</v>
@@ -2049,7 +2052,7 @@
         <v>3191</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5531</v>
@@ -2059,13 +2062,13 @@
         <v>3193</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>5533</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>5535</v>
@@ -2075,7 +2078,7 @@
         <v>3195</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>5537</v>
@@ -2085,7 +2088,7 @@
         <v>3197</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>5539</v>
@@ -2095,7 +2098,7 @@
         <v>3199</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>5541</v>
@@ -2105,7 +2108,7 @@
         <v>3201</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>5543</v>
@@ -2115,13 +2118,13 @@
         <v>3203</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>5545</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>5547</v>
@@ -2131,7 +2134,7 @@
         <v>3206</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>5549</v>
@@ -2141,7 +2144,7 @@
         <v>3208</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>5551</v>
@@ -2151,7 +2154,7 @@
         <v>3210</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>5553</v>
@@ -2161,7 +2164,7 @@
         <v>3212</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>5555</v>
@@ -2171,7 +2174,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>5557</v>
@@ -2181,7 +2184,7 @@
         <v>3216</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>5559</v>
@@ -2191,7 +2194,7 @@
         <v>3218</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>5561</v>
@@ -2201,7 +2204,7 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>5563</v>
@@ -2211,7 +2214,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>5565</v>
@@ -2221,7 +2224,7 @@
         <v>3224</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>5567</v>
@@ -2231,7 +2234,7 @@
         <v>3226</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>5569</v>
@@ -2241,7 +2244,7 @@
         <v>3228</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>5571</v>
@@ -2251,7 +2254,7 @@
         <v>3230</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>5573</v>
@@ -2261,7 +2264,7 @@
         <v>3232</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>5575</v>
@@ -2271,13 +2274,13 @@
         <v>3234</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>5577</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>5579</v>
@@ -2287,7 +2290,7 @@
         <v>3236</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>5581</v>
@@ -2297,7 +2300,7 @@
         <v>3238</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>5583</v>
@@ -2307,7 +2310,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>5585</v>
@@ -2317,7 +2320,7 @@
         <v>3242</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>5587</v>
@@ -2327,7 +2330,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>5589</v>
@@ -2337,7 +2340,7 @@
         <v>3246</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>5591</v>
@@ -2347,7 +2350,7 @@
         <v>3248</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>5593</v>
@@ -2357,7 +2360,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>5595</v>
@@ -2367,7 +2370,7 @@
         <v>3252</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>5597</v>
@@ -2377,7 +2380,7 @@
         <v>3254</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>5599</v>
@@ -2387,7 +2390,7 @@
         <v>3256</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>5601</v>
@@ -2397,13 +2400,13 @@
         <v>3258</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>5603</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>5605</v>
@@ -2413,7 +2416,7 @@
         <v>3259</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>5607</v>
@@ -2423,7 +2426,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>5609</v>
@@ -2433,7 +2436,7 @@
         <v>3263</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>5611</v>
@@ -2443,7 +2446,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>5613</v>
@@ -2453,7 +2456,7 @@
         <v>3267</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>5615</v>
@@ -2463,7 +2466,7 @@
         <v>3269</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>5617</v>
@@ -2482,18 +2485,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950DF5DA-EE46-4B46-B7A5-CBA8EA93B4FA}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2504,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>5521</v>
       </c>
@@ -2515,7 +2518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+2</f>
         <v>5523</v>
@@ -2529,7 +2532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A50" si="0">A3+2</f>
         <v>5525</v>
@@ -2543,7 +2546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>5527</v>
@@ -2557,7 +2560,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5529</v>
@@ -2571,7 +2574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5531</v>
@@ -2585,7 +2588,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>5533</v>
@@ -2599,7 +2602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>5535</v>
@@ -2613,7 +2616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>5537</v>
@@ -2627,7 +2630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5726</v>
       </c>
@@ -2639,7 +2642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5726</v>
       </c>
@@ -2651,7 +2654,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5726</v>
       </c>
@@ -2663,7 +2666,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>5728</v>
@@ -2677,7 +2680,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>5730</v>
@@ -2691,7 +2694,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>5732</v>
@@ -2705,7 +2708,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>5734</v>
@@ -2719,7 +2722,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>5736</v>
@@ -2733,7 +2736,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>5738</v>
@@ -2747,7 +2750,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>5740</v>
@@ -2761,7 +2764,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>5742</v>
@@ -2775,7 +2778,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>5744</v>
@@ -2789,7 +2792,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>5746</v>
@@ -2803,7 +2806,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>5748</v>
@@ -2817,7 +2820,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>5750</v>
@@ -2831,7 +2834,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>5752</v>
@@ -2845,7 +2848,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>5754</v>
@@ -2859,7 +2862,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>5756</v>
@@ -2873,7 +2876,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>5758</v>
@@ -2887,7 +2890,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>5760</v>
@@ -2901,7 +2904,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>5762</v>
@@ -2915,7 +2918,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>5764</v>
@@ -2929,7 +2932,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>5766</v>
@@ -2943,7 +2946,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>5768</v>
@@ -2957,7 +2960,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>5511</v>
       </c>
@@ -2969,7 +2972,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>5511</v>
       </c>
@@ -2981,7 +2984,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>5511</v>
       </c>
@@ -2993,7 +2996,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>5513</v>
@@ -3007,7 +3010,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>5515</v>
@@ -3021,7 +3024,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>5517</v>
@@ -3035,7 +3038,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>5519</v>
@@ -3049,7 +3052,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>5521</v>
@@ -3063,7 +3066,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>5523</v>
@@ -3077,7 +3080,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>5525</v>
@@ -3091,7 +3094,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>5527</v>
@@ -3105,7 +3108,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>5529</v>
@@ -3119,7 +3122,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>5531</v>
@@ -3133,7 +3136,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>5533</v>
@@ -3147,7 +3150,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>5535</v>
@@ -3161,7 +3164,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>5537</v>
